--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tnfsf15-Tnfrsf25.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tnfsf15-Tnfrsf25.xlsx
@@ -543,10 +543,10 @@
         <v>0.195433</v>
       </c>
       <c r="I2">
-        <v>0.06104623830938596</v>
+        <v>0.03599369093307372</v>
       </c>
       <c r="J2">
-        <v>0.06104623830938594</v>
+        <v>0.03599369093307372</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.132000666666666</v>
+        <v>5.939783333333334</v>
       </c>
       <c r="N2">
-        <v>9.396001999999999</v>
+        <v>17.81935</v>
       </c>
       <c r="O2">
-        <v>0.5428672025543642</v>
+        <v>0.371037203625045</v>
       </c>
       <c r="P2">
-        <v>0.542867202554364</v>
+        <v>0.3710372036250449</v>
       </c>
       <c r="Q2">
-        <v>0.2040320954295555</v>
+        <v>0.3869432253944445</v>
       </c>
       <c r="R2">
-        <v>1.836288858866</v>
+        <v>3.48248902855</v>
       </c>
       <c r="S2">
-        <v>0.03314000061748341</v>
+        <v>0.01335499843195181</v>
       </c>
       <c r="T2">
-        <v>0.03314000061748339</v>
+        <v>0.01335499843195181</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +605,10 @@
         <v>0.195433</v>
       </c>
       <c r="I3">
-        <v>0.06104623830938596</v>
+        <v>0.03599369093307372</v>
       </c>
       <c r="J3">
-        <v>0.06104623830938594</v>
+        <v>0.03599369093307372</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,10 +623,10 @@
         <v>3.338535</v>
       </c>
       <c r="O3">
-        <v>0.1928885451578059</v>
+        <v>0.06951548123833583</v>
       </c>
       <c r="P3">
-        <v>0.1928885451578058</v>
+        <v>0.06951548123833583</v>
       </c>
       <c r="Q3">
         <v>0.07249554562833334</v>
@@ -635,10 +635,10 @@
         <v>0.6524599106550001</v>
       </c>
       <c r="S3">
-        <v>0.01177512009485417</v>
+        <v>0.002502118746756545</v>
       </c>
       <c r="T3">
-        <v>0.01177512009485417</v>
+        <v>0.002502118746756544</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,10 +667,10 @@
         <v>0.195433</v>
       </c>
       <c r="I4">
-        <v>0.06104623830938596</v>
+        <v>0.03599369093307372</v>
       </c>
       <c r="J4">
-        <v>0.06104623830938594</v>
+        <v>0.03599369093307372</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.437312666666666</v>
+        <v>7.898083</v>
       </c>
       <c r="N4">
-        <v>4.311938</v>
+        <v>23.694249</v>
       </c>
       <c r="O4">
-        <v>0.2491282696244488</v>
+        <v>0.4933652400876304</v>
       </c>
       <c r="P4">
-        <v>0.2491282696244487</v>
+        <v>0.4933652400876304</v>
       </c>
       <c r="Q4">
-        <v>0.09363277546155555</v>
+        <v>0.5145153516463333</v>
       </c>
       <c r="R4">
-        <v>0.8426949791539999</v>
+        <v>4.630638164816999</v>
       </c>
       <c r="S4">
-        <v>0.01520834371709906</v>
+        <v>0.01775803596883588</v>
       </c>
       <c r="T4">
-        <v>0.01520834371709905</v>
+        <v>0.01775803596883588</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,40 +729,40 @@
         <v>0.195433</v>
       </c>
       <c r="I5">
-        <v>0.06104623830938596</v>
+        <v>0.03599369093307372</v>
       </c>
       <c r="J5">
-        <v>0.06104623830938594</v>
+        <v>0.03599369093307372</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.08720966666666667</v>
+        <v>1.057881</v>
       </c>
       <c r="N5">
-        <v>0.261629</v>
+        <v>3.173643</v>
       </c>
       <c r="O5">
-        <v>0.01511598266338127</v>
+        <v>0.06608207504898879</v>
       </c>
       <c r="P5">
-        <v>0.01511598266338127</v>
+        <v>0.06608207504898879</v>
       </c>
       <c r="Q5">
-        <v>0.005681215595222222</v>
+        <v>0.06891495249099999</v>
       </c>
       <c r="R5">
-        <v>0.051130940357</v>
+        <v>0.6202345724189999</v>
       </c>
       <c r="S5">
-        <v>0.0009227738799493198</v>
+        <v>0.002378537785529485</v>
       </c>
       <c r="T5">
-        <v>0.0009227738799493194</v>
+        <v>0.002378537785529485</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,22 +779,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>1.001986666666667</v>
+        <v>1.744737666666667</v>
       </c>
       <c r="H6">
-        <v>3.00596</v>
+        <v>5.234213</v>
       </c>
       <c r="I6">
-        <v>0.9389537616906142</v>
+        <v>0.9640063090669263</v>
       </c>
       <c r="J6">
-        <v>0.9389537616906141</v>
+        <v>0.9640063090669262</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.132000666666666</v>
+        <v>5.939783333333334</v>
       </c>
       <c r="N6">
-        <v>9.396001999999999</v>
+        <v>17.81935</v>
       </c>
       <c r="O6">
-        <v>0.5428672025543642</v>
+        <v>0.371037203625045</v>
       </c>
       <c r="P6">
-        <v>0.542867202554364</v>
+        <v>0.3710372036250449</v>
       </c>
       <c r="Q6">
-        <v>3.138222907991111</v>
+        <v>10.36336371350556</v>
       </c>
       <c r="R6">
-        <v>28.24400617192</v>
+        <v>93.27027342155</v>
       </c>
       <c r="S6">
-        <v>0.5097272019368808</v>
+        <v>0.3576822051930932</v>
       </c>
       <c r="T6">
-        <v>0.5097272019368807</v>
+        <v>0.3576822051930931</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,22 +841,22 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>1.001986666666667</v>
+        <v>1.744737666666667</v>
       </c>
       <c r="H7">
-        <v>3.00596</v>
+        <v>5.234213</v>
       </c>
       <c r="I7">
-        <v>0.9389537616906142</v>
+        <v>0.9640063090669263</v>
       </c>
       <c r="J7">
-        <v>0.9389537616906141</v>
+        <v>0.9640063090669262</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>3.338535</v>
       </c>
       <c r="O7">
-        <v>0.1928885451578059</v>
+        <v>0.06951548123833583</v>
       </c>
       <c r="P7">
-        <v>0.1928885451578058</v>
+        <v>0.06951548123833583</v>
       </c>
       <c r="Q7">
-        <v>1.115055852066667</v>
+        <v>1.941622588661667</v>
       </c>
       <c r="R7">
-        <v>10.0355026686</v>
+        <v>17.474603297955</v>
       </c>
       <c r="S7">
-        <v>0.1811134250629517</v>
+        <v>0.06701336249157928</v>
       </c>
       <c r="T7">
-        <v>0.1811134250629517</v>
+        <v>0.06701336249157927</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,22 +903,22 @@
         <v>25</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>1.001986666666667</v>
+        <v>1.744737666666667</v>
       </c>
       <c r="H8">
-        <v>3.00596</v>
+        <v>5.234213</v>
       </c>
       <c r="I8">
-        <v>0.9389537616906142</v>
+        <v>0.9640063090669263</v>
       </c>
       <c r="J8">
-        <v>0.9389537616906141</v>
+        <v>0.9640063090669262</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.437312666666666</v>
+        <v>7.898083</v>
       </c>
       <c r="N8">
-        <v>4.311938</v>
+        <v>23.694249</v>
       </c>
       <c r="O8">
-        <v>0.2491282696244488</v>
+        <v>0.4933652400876304</v>
       </c>
       <c r="P8">
-        <v>0.2491282696244487</v>
+        <v>0.4933652400876304</v>
       </c>
       <c r="Q8">
-        <v>1.440168127831111</v>
+        <v>13.78008290455967</v>
       </c>
       <c r="R8">
-        <v>12.96151315048</v>
+        <v>124.020746141037</v>
       </c>
       <c r="S8">
-        <v>0.2339199259073497</v>
+        <v>0.4756072041187946</v>
       </c>
       <c r="T8">
-        <v>0.2339199259073497</v>
+        <v>0.4756072041187945</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>1.001986666666667</v>
+        <v>1.744737666666667</v>
       </c>
       <c r="H9">
-        <v>3.00596</v>
+        <v>5.234213</v>
       </c>
       <c r="I9">
-        <v>0.9389537616906142</v>
+        <v>0.9640063090669263</v>
       </c>
       <c r="J9">
-        <v>0.9389537616906141</v>
+        <v>0.9640063090669262</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.08720966666666667</v>
+        <v>1.057881</v>
       </c>
       <c r="N9">
-        <v>0.261629</v>
+        <v>3.173643</v>
       </c>
       <c r="O9">
-        <v>0.01511598266338127</v>
+        <v>0.06608207504898879</v>
       </c>
       <c r="P9">
-        <v>0.01511598266338127</v>
+        <v>0.06608207504898879</v>
       </c>
       <c r="Q9">
-        <v>0.08738292320444443</v>
+        <v>1.845724827551</v>
       </c>
       <c r="R9">
-        <v>0.78644630884</v>
+        <v>16.611523447959</v>
       </c>
       <c r="S9">
-        <v>0.01419320878343195</v>
+        <v>0.0637035372634593</v>
       </c>
       <c r="T9">
-        <v>0.01419320878343195</v>
+        <v>0.0637035372634593</v>
       </c>
     </row>
   </sheetData>
